--- a/uploads/sample (4).xlsx
+++ b/uploads/sample (4).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="409">
   <si>
     <t>매장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9950,6 +9950,10 @@
   </si>
   <si>
     <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10051,7 +10055,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10061,6 +10065,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10171,7 +10181,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10181,52 +10191,86 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10512,10 +10556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10525,7 +10569,7 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10539,213 +10583,222 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10753,13 +10806,13 @@
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10767,13 +10820,13 @@
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10781,13 +10834,13 @@
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10795,13 +10848,13 @@
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10809,13 +10862,13 @@
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10823,13 +10876,13 @@
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10837,13 +10890,13 @@
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10851,7 +10904,7 @@
       <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>242</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -10893,7 +10946,7 @@
       <c r="A27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -10907,7 +10960,7 @@
       <c r="A28" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -10921,7 +10974,7 @@
       <c r="A29" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>227</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -10935,7 +10988,7 @@
       <c r="A30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>224</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -10949,7 +11002,7 @@
       <c r="A31" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -10977,7 +11030,7 @@
       <c r="A33" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -10991,7 +11044,7 @@
       <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>212</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -11005,10 +11058,10 @@
       <c r="A35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -11033,7 +11086,7 @@
       <c r="A37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -11103,7 +11156,7 @@
       <c r="A42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>188</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -11145,7 +11198,7 @@
       <c r="A45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="13" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -11173,10 +11226,10 @@
       <c r="A47" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="18" t="s">
         <v>172</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -11215,7 +11268,7 @@
       <c r="A50" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -11229,7 +11282,7 @@
       <c r="A51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
         <v>161</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -11243,7 +11296,7 @@
       <c r="A52" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="13" t="s">
         <v>158</v>
       </c>
       <c r="C52" s="14" t="s">
@@ -11257,7 +11310,7 @@
       <c r="A53" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -11271,7 +11324,7 @@
       <c r="A54" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C54" s="14" t="s">
@@ -11299,7 +11352,7 @@
       <c r="A56" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -11313,7 +11366,7 @@
       <c r="A57" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -11327,7 +11380,7 @@
       <c r="A58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="13" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -11355,7 +11408,7 @@
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="13" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -11369,7 +11422,7 @@
       <c r="A61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -11397,7 +11450,7 @@
       <c r="A63" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -11425,7 +11478,7 @@
       <c r="A65" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="13" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -11439,7 +11492,7 @@
       <c r="A66" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -11453,7 +11506,7 @@
       <c r="A67" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -11467,7 +11520,7 @@
       <c r="A68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -11495,7 +11548,7 @@
       <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -11509,7 +11562,7 @@
       <c r="A71" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -11523,7 +11576,7 @@
       <c r="A72" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -11565,10 +11618,10 @@
       <c r="A75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -11579,10 +11632,10 @@
       <c r="A76" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -11593,10 +11646,10 @@
       <c r="A77" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -11607,7 +11660,7 @@
       <c r="A78" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="14" t="s">
@@ -11624,7 +11677,7 @@
       <c r="B79" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -11649,13 +11702,13 @@
       <c r="A81" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="28" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11663,13 +11716,13 @@
       <c r="A82" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="28" t="s">
         <v>362</v>
       </c>
     </row>
@@ -11677,13 +11730,13 @@
       <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="28" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11691,13 +11744,13 @@
       <c r="A84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="28" t="s">
         <v>356</v>
       </c>
     </row>
@@ -11705,13 +11758,13 @@
       <c r="A85" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="28" t="s">
         <v>353</v>
       </c>
     </row>
@@ -11719,13 +11772,13 @@
       <c r="A86" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="28" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11733,13 +11786,13 @@
       <c r="A87" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="28" t="s">
         <v>347</v>
       </c>
     </row>
@@ -11747,13 +11800,13 @@
       <c r="A88" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="28" t="s">
         <v>344</v>
       </c>
     </row>
@@ -11761,13 +11814,13 @@
       <c r="A89" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="28" t="s">
         <v>341</v>
       </c>
     </row>
@@ -11775,13 +11828,13 @@
       <c r="A90" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="28" t="s">
         <v>338</v>
       </c>
     </row>
@@ -11789,13 +11842,13 @@
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="28" t="s">
         <v>335</v>
       </c>
     </row>
@@ -11803,13 +11856,13 @@
       <c r="A92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="28" t="s">
         <v>332</v>
       </c>
     </row>
@@ -11817,13 +11870,13 @@
       <c r="A93" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="28" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11831,13 +11884,13 @@
       <c r="A94" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="28" t="s">
         <v>326</v>
       </c>
     </row>
@@ -11845,13 +11898,13 @@
       <c r="A95" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="28" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11859,13 +11912,13 @@
       <c r="A96" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="28" t="s">
         <v>320</v>
       </c>
     </row>
@@ -11873,13 +11926,13 @@
       <c r="A97" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="28" t="s">
         <v>317</v>
       </c>
     </row>
@@ -11887,13 +11940,13 @@
       <c r="A98" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="28" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11901,13 +11954,13 @@
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="28" t="s">
         <v>311</v>
       </c>
     </row>
@@ -11915,13 +11968,13 @@
       <c r="A100" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="28" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11929,13 +11982,13 @@
       <c r="A101" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="28" t="s">
         <v>305</v>
       </c>
     </row>
@@ -11943,13 +11996,13 @@
       <c r="A102" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="28" t="s">
         <v>302</v>
       </c>
     </row>
@@ -11957,13 +12010,13 @@
       <c r="A103" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="28" t="s">
         <v>299</v>
       </c>
     </row>
@@ -11971,13 +12024,13 @@
       <c r="A104" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="28" t="s">
         <v>297</v>
       </c>
     </row>
@@ -11985,13 +12038,13 @@
       <c r="A105" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="28" t="s">
         <v>294</v>
       </c>
     </row>
@@ -11999,13 +12052,13 @@
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="28" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12013,25 +12066,25 @@
       <c r="A107" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D107" s="14"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="28" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12039,13 +12092,13 @@
       <c r="A109" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="28" t="s">
         <v>283</v>
       </c>
     </row>
@@ -12053,13 +12106,13 @@
       <c r="A110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="28" t="s">
         <v>280</v>
       </c>
     </row>
@@ -12067,13 +12120,13 @@
       <c r="A111" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="28" t="s">
         <v>277</v>
       </c>
     </row>
@@ -12081,13 +12134,13 @@
       <c r="A112" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="28" t="s">
         <v>274</v>
       </c>
     </row>
@@ -12095,13 +12148,13 @@
       <c r="A113" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="28" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12109,13 +12162,13 @@
       <c r="A114" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="28" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12123,13 +12176,13 @@
       <c r="A115" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="28" t="s">
         <v>265</v>
       </c>
     </row>
@@ -12137,13 +12190,13 @@
       <c r="A116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="28" t="s">
         <v>262</v>
       </c>
     </row>
@@ -12151,13 +12204,13 @@
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="28" t="s">
         <v>259</v>
       </c>
     </row>
@@ -12165,13 +12218,13 @@
       <c r="A118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="28" t="s">
         <v>256</v>
       </c>
     </row>
@@ -12179,13 +12232,13 @@
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -12193,13 +12246,13 @@
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="28" t="s">
         <v>250</v>
       </c>
     </row>
@@ -12207,13 +12260,13 @@
       <c r="A121" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -12221,13 +12274,13 @@
       <c r="A122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="28" t="s">
         <v>244</v>
       </c>
     </row>
@@ -12235,13 +12288,13 @@
       <c r="A123" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -12249,13 +12302,13 @@
       <c r="A124" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="3" t="s">
         <v>373</v>
       </c>
     </row>
@@ -12263,13 +12316,13 @@
       <c r="A125" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -12277,13 +12330,13 @@
       <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="3" t="s">
         <v>379</v>
       </c>
     </row>
@@ -12291,13 +12344,13 @@
       <c r="A127" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="3" t="s">
         <v>382</v>
       </c>
     </row>
@@ -12305,13 +12358,13 @@
       <c r="A128" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="3" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12319,13 +12372,13 @@
       <c r="A129" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="3" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12333,13 +12386,13 @@
       <c r="A130" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="3" t="s">
         <v>391</v>
       </c>
     </row>
@@ -12347,13 +12400,13 @@
       <c r="A131" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="3" t="s">
         <v>394</v>
       </c>
     </row>
@@ -12361,13 +12414,13 @@
       <c r="A132" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="3" t="s">
         <v>397</v>
       </c>
     </row>
@@ -12375,13 +12428,13 @@
       <c r="A133" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="3" t="s">
         <v>400</v>
       </c>
     </row>
@@ -12389,13 +12442,13 @@
       <c r="A134" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="3" t="s">
         <v>403</v>
       </c>
     </row>
@@ -12403,13 +12456,13 @@
       <c r="A135" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="3" t="s">
         <v>406</v>
       </c>
     </row>

--- a/uploads/sample (4).xlsx
+++ b/uploads/sample (4).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="408">
   <si>
     <t>매장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9950,10 +9950,6 @@
   </si>
   <si>
     <t>인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10556,10 +10552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10569,7 +10565,7 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10583,7 +10579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -10610,11 +10606,8 @@
       <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10628,7 +10621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -10642,7 +10635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -10655,11 +10648,8 @@
       <c r="D6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -10673,7 +10663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -10687,7 +10677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -10701,7 +10691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -10715,7 +10705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -10728,11 +10718,8 @@
       <c r="D11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -10746,7 +10733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -10760,7 +10747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -10774,7 +10761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -10788,7 +10775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
